--- a/кейсы.xlsx
+++ b/кейсы.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Diploma\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Приоритет</t>
   </si>
@@ -42,31 +47,37 @@
     <t>Критично</t>
   </si>
   <si>
-    <t>Войти в систему под логином администратора</t>
-  </si>
-  <si>
-    <t>Перейти на вкладку "Persons"</t>
-  </si>
-  <si>
     <t>Шаг 4</t>
   </si>
   <si>
-    <t>Администратор редактирует персону</t>
-  </si>
-  <si>
-    <t>Выбранная персона изменена. Результаты отображаются в таблице</t>
-  </si>
-  <si>
-    <t>Настранице "Persons" рядом с выбранной персоной нажать кнопку "Edit"</t>
-  </si>
-  <si>
-    <t>В появившейся форме "Edit person" изменить необходимые поля и нажать кнопку "Update person"</t>
+    <t>RDM может изменить свой пароль</t>
+  </si>
+  <si>
+    <t>Войти в систему под логином RDM</t>
+  </si>
+  <si>
+    <t>Перейти на вкладку "RDM"</t>
+  </si>
+  <si>
+    <t>Настранице "RDM" рядом с выбранным RDM нажать кнопку "Edit"</t>
+  </si>
+  <si>
+    <t>Пароль RDM изменен и отображается в таблице только для администратора</t>
+  </si>
+  <si>
+    <t>В появившей форме "Edit RDM" все поля не доступны, кроме поля с паролем</t>
+  </si>
+  <si>
+    <t>Изменить поле с паролем и нажать кнопку "Update RDM"</t>
+  </si>
+  <si>
+    <t>Шаг 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,9 +137,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,14 +153,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,9 +201,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,70 +469,81 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/кейсы.xlsx
+++ b/кейсы.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Приоритет</t>
   </si>
@@ -50,28 +50,67 @@
     <t>Шаг 4</t>
   </si>
   <si>
-    <t>RDM может изменить свой пароль</t>
-  </si>
-  <si>
     <t>Войти в систему под логином RDM</t>
   </si>
   <si>
     <t>Перейти на вкладку "RDM"</t>
   </si>
   <si>
-    <t>Настранице "RDM" рядом с выбранным RDM нажать кнопку "Edit"</t>
-  </si>
-  <si>
-    <t>Пароль RDM изменен и отображается в таблице только для администратора</t>
-  </si>
-  <si>
-    <t>В появившей форме "Edit RDM" все поля не доступны, кроме поля с паролем</t>
-  </si>
-  <si>
-    <t>Изменить поле с паролем и нажать кнопку "Update RDM"</t>
-  </si>
-  <si>
     <t>Шаг 5</t>
+  </si>
+  <si>
+    <t>Совершить выход из приложения с главной страницы при нажатии на кнопку "Logout"</t>
+  </si>
+  <si>
+    <t>Шаг 6</t>
+  </si>
+  <si>
+    <t>Шаг 7</t>
+  </si>
+  <si>
+    <t>Перейти на вкладку "Persons"</t>
+  </si>
+  <si>
+    <t>Совершить выход с текущей вкладки при нажатии на кнопку "Logout"</t>
+  </si>
+  <si>
+    <t>Повторить шаги 3, 4</t>
+  </si>
+  <si>
+    <t>Шаг 8</t>
+  </si>
+  <si>
+    <t>Шаг 9</t>
+  </si>
+  <si>
+    <t>Перейти на вкладку "Requisition"</t>
+  </si>
+  <si>
+    <t>Повторить шаги 6,7</t>
+  </si>
+  <si>
+    <t>Перейти на вкладку "Analysis"</t>
+  </si>
+  <si>
+    <t>Шаг 10</t>
+  </si>
+  <si>
+    <t>Шаг 11</t>
+  </si>
+  <si>
+    <t>Шаг 12</t>
+  </si>
+  <si>
+    <t>Шаг 13</t>
+  </si>
+  <si>
+    <t>RDM может выйти из системы с любой вкладки</t>
+  </si>
+  <si>
+    <t>RDM перешел на стратовую страницу приложения</t>
+  </si>
+  <si>
+    <t>RDM смог выйти из приложения с каждой из вкладок. После выхода он попадает на стартовую страницу приложения</t>
   </si>
 </sst>
 </file>
@@ -123,11 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,83 +505,172 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="E2:E14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/кейсы.xlsx
+++ b/кейсы.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Приоритет</t>
   </si>
@@ -50,67 +50,40 @@
     <t>Шаг 4</t>
   </si>
   <si>
-    <t>Войти в систему под логином RDM</t>
-  </si>
-  <si>
-    <t>Перейти на вкладку "RDM"</t>
-  </si>
-  <si>
-    <t>Шаг 5</t>
-  </si>
-  <si>
-    <t>Совершить выход из приложения с главной страницы при нажатии на кнопку "Logout"</t>
-  </si>
-  <si>
-    <t>Шаг 6</t>
-  </si>
-  <si>
-    <t>Шаг 7</t>
-  </si>
-  <si>
-    <t>Перейти на вкладку "Persons"</t>
-  </si>
-  <si>
-    <t>Совершить выход с текущей вкладки при нажатии на кнопку "Logout"</t>
-  </si>
-  <si>
-    <t>Повторить шаги 3, 4</t>
-  </si>
-  <si>
-    <t>Шаг 8</t>
-  </si>
-  <si>
-    <t>Шаг 9</t>
-  </si>
-  <si>
-    <t>Перейти на вкладку "Requisition"</t>
-  </si>
-  <si>
-    <t>Повторить шаги 6,7</t>
-  </si>
-  <si>
     <t>Перейти на вкладку "Analysis"</t>
   </si>
   <si>
-    <t>Шаг 10</t>
-  </si>
-  <si>
-    <t>Шаг 11</t>
-  </si>
-  <si>
-    <t>Шаг 12</t>
-  </si>
-  <si>
-    <t>Шаг 13</t>
-  </si>
-  <si>
-    <t>RDM может выйти из системы с любой вкладки</t>
-  </si>
-  <si>
-    <t>RDM перешел на стратовую страницу приложения</t>
-  </si>
-  <si>
-    <t>RDM смог выйти из приложения с каждой из вкладок. После выхода он попадает на стартовую страницу приложения</t>
+    <t>Войти в систему под логином администратора</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Save"</t>
+  </si>
+  <si>
+    <t>RDM заполняет таблицу посещаемости</t>
+  </si>
+  <si>
+    <t>RDM заполняет таблицу успеваемости</t>
+  </si>
+  <si>
+    <t>Важно</t>
+  </si>
+  <si>
+    <t>Обработка данных таблиц успеваемости и посещаемости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для студента заполнить поля таблицы посещамости данными:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для студента заполнить поля таблицы успеваемости данными:
+</t>
+  </si>
+  <si>
+    <t>Для студента в таблице отображается информация о его посещаемости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для студента в таблиц анализа отображаются данные:
+</t>
   </si>
 </sst>
 </file>
@@ -162,13 +135,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -483,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,169 +484,186 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E2:E14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
